--- a/mapping/ChemCatChem_CHMO.xlsx
+++ b/mapping/ChemCatChem_CHMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -142,7 +142,40 @@
     <t>{'label': 'photoelectron spectroscopy'}</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>['A nanometre sized object.']</t>
+  </si>
+  <si>
+    <t>['A nanometre sized tube composed of either organic or inorganic substances.']</t>
+  </si>
+  <si>
+    <t>['Microscopy where the specimen is bombarded with a finely focused (&lt;10 nm diameter) electron beam with an acceleration voltage 50-150 kV under vacuum. The interaction of the electrons with the specimen produces transmitted, secondary, backscattered and diffracted electrons and characteristic X-rays which are detected.']</t>
+  </si>
+  <si>
+    <t>['Spectroscopy where the sample is bombarded with X-rays and the X-ray absorption coefficient of the sample is measured. When the incident X-ray energy matches the binding energy of an electron in an atom there is a decrease in the intensity of transmitted X-rays resulting in an absorption edge.']</t>
+  </si>
+  <si>
+    <t>['A process where the components of a sample spontaneously (and reversibly) associate by non-covalent interactions, forming an organised structure or pattern. Individual building blocks associate into more complex (higher-order) structures during self-assembly.']</t>
+  </si>
+  <si>
+    <t>['A molecule consisting of a graphene cylinder or two or more concentric graphene cylinders.']</t>
+  </si>
+  <si>
+    <t>['A synthesis method for growing single crystals from an aqueous solution in an autoclave (a thick-walled steel vessel) at high temperature (400 °C) and pressure.']</t>
+  </si>
+  <si>
+    <t>['Microscopy which uses a probe to scan the surface of the specimen and measure some form of interaction between surface and probe. An image of the surface is obtained by mechanically moving the probe in a raster scan of the specimen, line by line, and recording the probe-surface interaction as a function of position. A feedback loop is used to maintain a fixed relationship between the probe and surface during scanning.']</t>
+  </si>
+  <si>
+    <t>['A thin film deposition technique based on the sequential reaction of gaseous precursors at a surface to produce a monolayer']</t>
+  </si>
+  <si>
+    <t>['The chemical degradation of a sample by thermal energy. The term pyrolysis generally refers to heating in an inert environment.']</t>
+  </si>
+  <si>
+    <t>['The reaction of hydrocarbons with steam at high temperature (700–1000 °C) in order to produce hydrogen.']</t>
+  </si>
+  <si>
+    <t>['Spectroscopy where the sample is illuminated with photons causing ionisation and the emission of photoelectrons, the energies of which are measured. The energy of the incident photons is usually greater than the ionisation energy of the sample and the photoelectrons are emitted with the excess in the form of kinetic energy.']</t>
   </si>
 </sst>
 </file>
@@ -573,7 +606,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -593,7 +626,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -613,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -633,7 +666,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -653,7 +686,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -673,7 +706,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -693,7 +726,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -713,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -733,7 +766,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -753,7 +786,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -773,7 +806,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
